--- a/RainbowClock/Project/Output Job/Bill of Materials/Bill of Materials.xlsx
+++ b/RainbowClock/Project/Output Job/Bill of Materials/Bill of Materials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="102">
   <si>
     <t>Comment</t>
   </si>
@@ -713,19 +713,19 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/RainbowClock/Project/Output Job/Bill of Materials/Bill of Materials.xlsx
+++ b/RainbowClock/Project/Output Job/Bill of Materials/Bill of Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15060" windowHeight="12405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19980"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="103">
   <si>
     <t>Comment</t>
   </si>
@@ -53,45 +53,42 @@
     <t>0.47uF</t>
   </si>
   <si>
-    <t>Capacitor (Semiconductor SIM Model)</t>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1-215876-3</t>
+  </si>
+  <si>
+    <t>Tyco 1-215876-3</t>
+  </si>
+  <si>
+    <t>Tyco</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>1773039</t>
+  </si>
+  <si>
+    <t>10uF</t>
   </si>
   <si>
     <t>CAP0603</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>1-215876-3</t>
-  </si>
-  <si>
-    <t>Tyco 1-215876-3</t>
-  </si>
-  <si>
-    <t>Tyco</t>
-  </si>
-  <si>
-    <t>Farnell</t>
-  </si>
-  <si>
-    <t>1773039</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
     <t>1K</t>
   </si>
   <si>
     <t>Inductor</t>
   </si>
   <si>
-    <t>0603</t>
-  </si>
-  <si>
     <t>Murata</t>
   </si>
   <si>
@@ -134,6 +131,21 @@
     <t>2057960</t>
   </si>
   <si>
+    <t>AC to DC converter</t>
+  </si>
+  <si>
+    <t>Power adapter</t>
+  </si>
+  <si>
+    <t>IDEAL POWER</t>
+  </si>
+  <si>
+    <t>25HK-AB-050A400-CP</t>
+  </si>
+  <si>
+    <t>2334613</t>
+  </si>
+  <si>
     <t>BMP280</t>
   </si>
   <si>
@@ -170,39 +182,39 @@
     <t>Header, 16-Pin</t>
   </si>
   <si>
+    <t>SAMTEC</t>
+  </si>
+  <si>
+    <t>CES-116-01-T-S</t>
+  </si>
+  <si>
+    <t>1667522</t>
+  </si>
+  <si>
+    <t>LDR</t>
+  </si>
+  <si>
+    <t>Photoresistor</t>
+  </si>
+  <si>
+    <t>VT935G</t>
+  </si>
+  <si>
+    <t>Excelitas Tech</t>
+  </si>
+  <si>
+    <t>1652638</t>
+  </si>
+  <si>
+    <t>MC42003A6W-BNMLW</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
     <t>MC42004A6W-BNMLW</t>
   </si>
   <si>
-    <t>SAMTEC</t>
-  </si>
-  <si>
-    <t>CES-116-01-T-S</t>
-  </si>
-  <si>
-    <t>1667522</t>
-  </si>
-  <si>
-    <t>LDR</t>
-  </si>
-  <si>
-    <t>Photoresistor</t>
-  </si>
-  <si>
-    <t>VT935G</t>
-  </si>
-  <si>
-    <t>Excelitas Tech</t>
-  </si>
-  <si>
-    <t>1652638</t>
-  </si>
-  <si>
-    <t>MC42003A6W-BNMLW</t>
-  </si>
-  <si>
-    <t>LCD</t>
-  </si>
-  <si>
     <t>MIDAS</t>
   </si>
   <si>
@@ -321,15 +333,6 @@
   </si>
   <si>
     <t>100nF</t>
-  </si>
-  <si>
-    <t>1907318</t>
-  </si>
-  <si>
-    <t>C1608X7R1H104K080AA</t>
-  </si>
-  <si>
-    <t>TDK</t>
   </si>
 </sst>
 </file>
@@ -710,22 +713,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -764,7 +767,7 @@
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -788,7 +791,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -811,12 +814,12 @@
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -840,35 +843,35 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -886,7 +889,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -894,7 +897,7 @@
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -912,273 +915,273 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>11</v>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>11</v>
+      <c r="H12" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>51</v>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -1190,49 +1193,49 @@
         <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>11</v>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1249,52 +1252,52 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="A21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4">
         <v>2</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>81</v>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>85</v>
@@ -1308,13 +1311,13 @@
         <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D23" s="3">
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>15</v>
@@ -1323,47 +1326,47 @@
         <v>88</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="5">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>11</v>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="5">
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>11</v>
@@ -1380,54 +1383,80 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="5">
+        <v>97</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="5">
         <v>60</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="E27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
         <v>63</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>99</v>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
